--- a/extrai_dados_tab_web/Dados_Tabela.xlsx
+++ b/extrai_dados_tab_web/Dados_Tabela.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,105 +441,255 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t># ID Due Date Invoice</t>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Due</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 dkqily38haqc3x0cm1u9i5 08-06-2025</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>q7ogouyghid0m7jcni39</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23-03-2025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2 bw2zvvl2tx7cmsqmqvja6 25-04-2025</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1ge1x167l8njeomgpm1eic</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30-06-2025</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3 yzm4sxnwadqtsnfw2ecg 20-05-2025</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>wrl4yr0pverwzk1za3fhn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4 2bqslb9mfvc3s6zy26y3dw 14-05-2025</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>02ppvxszy1wbpsy0dpmumap</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>04-07-2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t># ID Due Date Invoice</t>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Due</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5 w77edhui6inoug8qg7k99 09-04-2025</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5yrp4mx53nx0fpsost9x9yt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>26-06-2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 ppt8rqlno8ommstv7qug8 18-04-2025</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>nnwt13l3o913prxm7zwyiq</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>09-07-2025</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 g3427pnuhhcf0wi8xbmozr 19-06-2025</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>kj0mqy8frspdtn3zdk9d</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8 73mtzor7k9kahdw9msamn 15-07-2025</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>promkax1bedj87q4xz4z7q</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09-04-2025</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t># ID Due Date Invoice</t>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Due</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9 rfhtflo4h6cymgwafikf 10-05-2025</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3q8lozi1r0dju2508bppua</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24-04-2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10 sy89qxk3un4cb9xgwq30k 08-04-2025</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>02ajjdow657w7t641t90cu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16-04-2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11 vxy94dpdqvo18c36q9pq 19-05-2025</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3m3uiohg1cfkde8upggxn</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17-06-2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12 h33f9f9rxs4ske1rsnl40m 22-05-2025</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ir9zxyp5mvt6hxgjniwh</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12-06-2025</t>
         </is>
       </c>
     </row>

--- a/extrai_dados_tab_web/Dados_Tabela.xlsx
+++ b/extrai_dados_tab_web/Dados_Tabela.xlsx
@@ -424,272 +424,888 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="13.77734375" customWidth="1" min="1" max="1"/>
     <col width="28.77734375" customWidth="1" min="2" max="2"/>
     <col width="20.33203125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Preço</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Imagem</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+          <t>Tripari Acessorios 904 carteira masculina couro legítimo com porta documentos removível com fecho cor preta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.90000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Due</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=1ARF9fS8ja4GDQrrBeQQRn1bkuRtiaLtpOUuTLSexhUKCOy3Pa0AsndEityAsox%2FORzk2SSdX1%2FIYa4wwDKCZ2s6pxGpk6c1Uo8g49brEfvTJla851Hov4av72M1mkxEZ1%2FZQ8MRD7SRCvIaEw%2BPHxSb2OiKBa9dKxvQVVhbvYW89tOVs8yeFjiZ1NfFl9XDgJFEJ0xc8d43HPpIF1MVTAyBUG3Hm2ImkdYYqwYy%2Frqa%2FbjMm3KnQxmfaYLa%2FW4z3E8gKOo44Ahcqfl%2FdtHjMTz2PMdzRVqMv2MFYH3bXQxcAB1xwX3oIHGSz0kqUZyRRFxv4pJEpMwfFAU06B7UOIPHhinT1tu%2F9UYqxfI8jyCd83PRHeruoEIinZy7n4bZcuKSUQyk0BlAw8VFuLF7Y6E9Ik2f%2Fq07hYRPD932374R116ocGVuoE4NuYFSos36I7RXYpZi5rTkY%2FVxFiqECd0Pl52kC0wyV8i4DlhKvx6JdH5odj7%2B2TB6tObE3dDI%2Bc3yb4p3PHpN%2FpqX5HyoRikyBngvEHTK9s0GeC4Op%2FwIDTzyME8rysYG7zjvHjOcAm2kEv7Nkueq1qCwjjI0wWUcMNg2S0ypfIt%2BLs6W2KjzyjtXamDY0F8LThzP1kcwH95gHu4mhl12TSOpB%2Btnuf3cXyZgrJ%2FIWnk3cbmO1UH%2FxoblGbS%2BzYgWsn1QP5Y3xX3hSOMoNKDFqwP7ioulCctLAaHp6sDa9nW19JYCgCQrKjJblyGGJWihhmsmBWuSwcidRiE8qki170YtRDhBOjTrnj6Kr9jkYES3UUuL9S9xxryYLghtrPjWQo5XhfDakZgWpY5euDBQMewbZN09h6I7ZfHbRo9yeRDS9Bp4JutnOLji8YyX3L4cYUVf%2Bp9IP7Z4QZ2FGZgHFy7yrbTPI7%2BNhVCBdan02nOy7tsgdSnQXu5O6EX4Pl2QHOhJxGe%2F32t5mFokID0XhxcxXDNV7OYeKaiZo%2BrFDC4mI0BBvCwISVrmJPwk8auYeq3Jizu7POra2EYRI4VL55qOrcA%2BZrr3%2F7q2RVEwx2%2F%2FuBb6Vk29Yg6BP3A%3D#polycard_client=search-nordic&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;wid=MLB3632789895&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>q7ogouyghid0m7jcni39</t>
-        </is>
+          <t>Carteira Masculina Couro Legítimo Completa Com Fecho Botão Cor Preto</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55.32</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23-03-2025</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=JTcL9Tar1tDUh0wy8C3EXhyPN2RQHgiEcE%2FbkaTBbXuu5x1MSmNg2zdE%2BT3LWuCzdF1ZP6P1bgUl1g6%2B5b2aZcf2gJ0N4%2FUeAEhC94AIdNiEo0H%2F7UOJKh4nAd%2F4y3%2BWfKyuYeeyjZb1%2F9ndUsXHg3OlP2tc1kRVeZIYqVl7qADGOzfcKDIQsFsPoFih8SDOPEWxMJbjezPXynJOO6EyRL8AALUXkypDPkXoBAyf3H0y5w9IZAMIlqojPUAN0gjPuSqE3MSCk2Z3RZg0zQoSW4sWXPdsLqV%2FHAWs2usclvG7vU6lv5oD%2BallxV7vHudcSaHeW1QRicSjSYTycQt%2B7YNKPt2v6RWy6qRkOncWA%2Fz%2Bfr6CnOtEPiQcJ0EKKYfNcIP9nlnFXW422TkojBSmBej7RkwMZigmRnJ1vPmFN%2BC%2Bi3ty9qly8Hna%2FHglzFcsr07urnrCKg8AQMO7v%2BVK%2BuWjx8D0Rth4MmpQd8%2FaMp6j1IWXecd8EEioR%2FG0gXZqGErSeC%2FjDAoRJ4Q3wH50ddvrmDB1YQt7yIfMywgVBfcsXHUsHd31%2FandUFGdkLyvhX8tbC3TZTDRHWCJ16cVtAZ6dmWUIog167%2FQGYXudNudcM%2BkYRD5sH8uD738FBwbh8fn8IT8p0bWaTwc7aewiwqhROkWOr10hgcJAcwe7A10CKGTI2Go%2FQ9kwyxWg9ujInvj2fjE5j8c1WD3nN3KCDsHUltSZKBAMJLBWSaGW8%2FNblSsCf0uMGvj%2FIuKPrY54W3%2BTba6%2BywJ8B%2F1pD8W%2Bj4LREQd3Ac7zzrl%2Fje4mKDr3JtBayNvtz%2F%2BBMQjEcDpJ8BGe553zUteTFlkW%2BYGDAkxosY%2F%2FwlPEr2E%2Bwa407GESSkgcKYuFbSFwQLga7zFA1jm5i7a3fHIrpx%2BN%2BZtZdNZHUypeIlCS4Qabu0XW6w8SEMys3v%2FwGdVtsRLrM00tI7a2lHGI4zsd5ELr1SAt7huuw%2BJ8vm8AdcJPpifvU%2B7nh46v%2BPqs5gTgIoc#polycard_client=search-nordic&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;wid=MLB3748193877&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1ge1x167l8njeomgpm1eic</t>
-        </is>
+          <t>Carteira masculina Couro legitimo Vastigriff 2140 Marrom</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>109.7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30-06-2025</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=tCR9W%2Fydlu2bVa68iinN7U%2BZaQ9Ev9kUM%2FwIhHgyqUGRZzYu%2FxQnpNzaapkC5nqVWM5vCNMKKWYL5YnKnhm%2FY2S0164qFhmQa8YNOOVUQEv7p3U48JkisV8iXhW8gwVNh5F3YgMQpl3o82nZnlm8XYUu4Z9c0gbr%2FSUfxkJJkfyK7Xnf%2FKJ2YyOJt9MDDV%2F%2Bkp37bWtnqDg6Zj8itTJ%2F54s9A1TFhRV4NHFzKll2ujX9ex7PaxBSlYGkOBVrHfgzwXxZW2t8ucGLNfLA4NI4wpikzZDJ5%2BH4G0cPdcjl6lWdtLV%2BCy3xoEUNQHBnlmXyAGb7E94lEVEpcOA5FXqQJyNSC60QzyU3pLt5QCUywmMysRrcmp3PX37yQ%2FEbluY48%2FPkom6Yj54O%2BKYtVdxlBqhiD3hvPV9Qo%2FuhphtrfUcpnzbRw6W6nAEWrKzDU0UTCSgPJFjuBCWDudlpKNmwQq80elDkrLnvyo3AvJmMQt8cSQeuZtjh70MiwxgU%2FQQ%2FF9IiBQpZoSMM3LOj4ZwtVdqbf8C27cKEFIxj8IfFi4i9dgG8Jk3zgI5YHtFeFEhihqkL0IuVklzPHJqhi083LF5N0mIMtSSBV7fqwH9DVnXZORD8J9YHM5YyFgFp4gL5ZGlXKkhKbhzoTsr7WXK16b20TqoCFEjZyj2G2CWFSsi3xlKNG0H1SDmFnVNOum7X%2BiWhA8C5aEs1Vi4S%2FQihjdeAP9i4%2BMhnSEg8sAGz6B%2Bl7UytTr9r5tQukAo9BtM2jEAMyvP2mA8gisSgLmPxYVDo2p7xON1TINad7y7KXIT9c01oVmYSWIBdpxt0li7ucyAoVOV67cx8bTGx3BmDTiD3q7xFGfQx%2BDmAtSb6iONCoumszhSBMb7WzI8GVlOdUYsKwap%2FNfJE%2Fb0H9Zrtl2kRy6ufEy%2Bt%2Fk2%2Bk2GnQMWSRBY4Vo%2BbLnzpTrFs2S6Ia6WSn6PwuT%2B9NMPLdyWgA6Oujqgu3BEmRYaxo2I1SsimjQ%3D%3D#polycard_client=search-nordic&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;wid=MLB4116475814&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>wrl4yr0pverwzk1za3fhn</t>
-        </is>
+          <t>Tripari Acessorios 904 carteira masculina couro legítimo com porta documentos removível com fecho cor preta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>77.90000000000001</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28-04-2025</t>
+          <t>https://www.mercadolivre.com.br/tripari-acessorios-904-carteira-masculina-couro-legitimo-com-porta-documentos-removivel-com-fecho-cor-preta/p/MLB34507966?searchVariation=MLB34507966#polycard_client=search-nordic&amp;searchVariation=MLB34507966&amp;backend_model=search-backend&amp;wid=MLB3632789895&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>02ppvxszy1wbpsy0dpmumap</t>
-        </is>
+          <t>Carteira masculino Águia Couro Com fecho 100% couro legitimo homem completo cor preto</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>59.97</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04-07-2025</t>
+          <t>https://www.mercadolivre.com.br/aguia-couro-fecho-boto-carteira-preto-liso-couro-bovino/p/MLB36535613?searchVariation=MLB36535613#wid=MLB4653177546&amp;sid=search&amp;searchVariation=MLB36535613&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+          <t>Carteira Kipling Cash Buddy Preto I3051p39</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>229.17</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Due</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4057781277-carteira-kipling-cash-buddy-preto-i3051p39-_JM?searchVariation=187881639449#polycard_client=search-nordic&amp;searchVariation=187881639449&amp;position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5yrp4mx53nx0fpsost9x9yt</t>
-        </is>
+          <t>BellVOLPE Slim Masculina Feminina carteira couro preta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>78.97</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26-06-2025</t>
+          <t>https://www.mercadolivre.com.br/bellvolpe-slim-masculina-feminina-carteira-preto-couro/p/MLB28893372?searchVariation=MLB28893372#wid=MLB3553448731&amp;sid=search&amp;searchVariation=MLB28893372&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>nnwt13l3o913prxm7zwyiq</t>
-        </is>
+          <t>Carteira Prática E Elegante Para Homens Com Acabamento Top</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>149.9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09-07-2025</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3998769297-carteira-pratica-e-elegante-para-homens-com-acabamento-top-_JM?searchVariation=183095975878#polycard_client=search-nordic&amp;searchVariation=183095975878&amp;position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>kj0mqy8frspdtn3zdk9d</t>
-        </is>
+          <t>Carteira Masculina Couro Genuíno Caramelo Porta Cartão E Cnh</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>66.90000000000001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30-04-2025</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5360970034-carteira-masculina-couro-genuino-caramelo-porta-carto-e-cnh-_JM?searchVariation=183419568644#polycard_client=search-nordic&amp;searchVariation=183419568644&amp;position=50&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>promkax1bedj87q4xz4z7q</t>
-        </is>
+          <t>Carteira Masculina Couro legitimo Vastigriff 2140 preto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>109.7</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09-04-2025</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=u0APTSqSYljShGx6KfzfmI%2BSiz1AF4vBbXPMt3BYp2vW6p58LMI%2Bg1ayqdb%2Fd8eif5S%2B5bKN95WLoRYcfU6bGaNZ3%2Fvwx%2FxcKNGxPr1LDtQPU9pVWeTd%2FmAYKPLAYdcPVIP%2F2lOtdvJLjmLZfH5eFtgE4LRLKqbE9oLLdZQ9z7XQN9CtOMBtv74ReCyGCQnlLOy%2FSSQ4QNk5VRc4ybQ8fw0AkgdtumoMDzTsM886IuxagnRSTS03IkevCcZLJNiQv8pUxybD4C11mWRQvM9vpl7rV%2FXVF7WU401o3DROjHk6CcoAyPZuU1BevOZ%2BszO58QbTsUgALTlu%2BIVpyhWNynucwxIGah6YpkOiGujmstXPZ4DgLgdPVHJqxLq2Td5okZsnha3p%2BRe3UgLGFmJ8MBgL01aOgHOMEBLQei5O9efA4TRKP1KTxZPRvJ0vwvNCvgas8syMhdtIr7I9VXNRKxFh2WyG3KXG6N5pfRCnDH6Y25Iik3oue0FfP63mR%2BEc%2F13ADTGfVkOMBJJupekpuA6jr2%2BRSHn7ufNJzgnSEW4H9jo3uriYsHGpHSx2M%2Fbx5lqrQxKiFnOB2xAVK%2BGnTB%2BGczOZt2AshX1O7lFXLQ2EjGwkf5VX1m5qb3a9rxTjtfr7wlqvvIdp207xaKdLAUXETKzgDH%2Fgbr7jSyMS5lKl6l8T6opThzqUN3F4RNuKVrpx1WF9g%2Fe%2FZShACOndlDV3mtwpPLs7cUc8zj3YmjLC0zIvepDsP04Hf5gRQ%2BvJwc%2FlLOq08fmVMQow0hCPMoKM7f0emRbSjbTlC5HL%2FFHwQFx5UAr%2B5sdOJEWVW%2FeKr9NbVhxBP6NmgDffK3YNReZXZxv0xs4U%2FDC2Ss2ryCUE3rTP9uVgHVsTQZd4V8FbhV07m2eezhvUrcyGFFbBnViqK%2FmmWsTWQxTSoukt%2FJ7JY30g5hoABPukJDIJRd4kFT6%2FYGSHZKcuusWpin%2FXtNbXY7RdF3L9yGe1RM44agll8pg%3D#polycard_client=search-nordic&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;wid=MLB4116425716&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+          <t>Carteira Porta Documento Slim Couro Legítimo Natural Cabe Rg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>39.9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Due</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=JzrR6h1QOB1qyzPfhySnwfFFVaa%2FrBZGOHeynIj5FbhhuNmODgUjoico%2FfbkS5NWP1aOQYI3Dmtz6JtE0XMTBpJf44YQdemZWHj9ITrLHZTC8DS9DIs3zTeGANku2mZ2%2FEmO1HNRoQtxC0r9Jh9kp6ZZrhly%2FDLYAZa19hucmELSkb9JnKi%2FRaG9z7MLQbIYC5iC8MmvB5lmTlL66TCod6INyi75AGN65c8TCT30nD5wRmp7v1KGFRhrUG7IDalFmJZ2NBMEJQs36NP3LfhFfnP4bEpdrdQnFVFnuc7OMoxzVvMEjtWBKeNaKTcQ%2BPNiOHr3HzWj0LBMxy0xF6sH4GU5zA9UX2%2BCXnVODs4fGpbpSEHNrip%2BQuup4Ty%2BPlLE7l2qJZyhRtq%2BCx%2FzgCUdcOjuo7akohz5GQ5SG3D%2FZRZ3lKG8MbvrHVOkH4rSlZk5RnQBibE5mpYVorWtk%2Ft2hvBtsQUi9uad1oyckhDxoXKEcpqlqyU7ipyVwT%2FN2B%2F17Teq4phWBfZY1OIAPs62nguF15GowMxcVwIP0Vfb1BLAexkykvCa4kkmxOjzUjrxZs4pkOwxkKnVZY1PGwWbcy7IJvcMq%2Byv0xKi3X6gGVWF2xE6yQ6aMlwOlgBqCPlpHCxmUlvPGimRTsTT6PTujTwUtP8M5bVlBSjVvM%2B0TkUBwmvNftXPa3dEQtb%2Bsg%3D%3D</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3q8lozi1r0dju2508bppua</t>
-        </is>
+          <t>Carteira Masculino Couro Legítimo Tripari Acessórios Lançamento Ref 973</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.98999999999999</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>24-04-2025</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=B6bg8WZnEr2B4IkMJ9pxvHvAjoxeD%2FrE7sHILO4SB4atbLlINU3t0iVd5YXChEbP6xS%2BgopA7%2FWKktjooKl%2FBLJYfgl6ywArMR8vIJ1Q6p%2FmabfWEspBM0vIFDWjI4tZnYyCdGxaSLHoEI6vyaMtcI8BYO%2F7%2BFbkXbjcV77iMHxKAv75J%2Fki4kDG40Gv8TXrTILFhX%2FTl%2B%2FIh9U6kq7wGqYa3eX8MG5qNY1l5yFwenBtPTkwk8lAiJ24NQh03KKTRJ7Nic%2B5vTsYzAz3I%2F1v2dGNkXty21IqJ6ALyEwZCPrCXuSQEV2loilGUecbLf6jdIiSKkMB0zEAQfltXgOpr93dKVLSSMnJVjbAbxrlVEBMZm%2BCdmd54lZYH7dLlspDpxt168C3tKVk8v1xKqR792SRRCMJRq6bYBfopC8FE8S4iNFYWS3tRvqWumbsi8okVm82kIJ3z437cTycw3EKfc3yMhcgnu2l988uUXHI7LwMn0ny7ej168iCl4eXrOkXn%2FlBXlXFV8mQZFXPD1LDXblppxEU7YhLTWiqATwGUkme5n6zL4%2F3Ki5c248J917HFIQesTADMgITsuzwVc0HpL8XRlbSrMdU9jMqdZ2Yw5EAZsy4J7iQOzpZ039e5tr1XeR7LUVXh1d2sxNfyjGgq1MmXrvT5mY7nJC4nrYNwVeJ%2FB9pe1AMuVJyvBs92w9RXj1%2B1TaV5QKfiFGA1eO29%2BwWNvGgpyyRuM%2FyIvrI0CFlc1IOCmUohsGwnwk3n8Kmvz%2Ba332%2B1TXcj08er2AOhCt5v5hUe1x%2FvMbfIi%2BOl%2B3kF3NjlUnvVnTmDETy%2FV1%2B8ANCgqf13JeTr9XKiD%2BhAPAnz4DwUeZNY70PwGvT%2BW7EIeotAyZ2KHWCLOENF5Sy5PiIhbQx4GgkCV8im0KqP29iem2%2B50kF2Noay2cZncoaynHsUsbDXQdeBx7ypT8bRH6kcX7v1yWB%2FGN8CFdgn%2Ff0esNYLyRn6jOHygQQUGFsHO9n%2F0Jf0%2FTYlajmNRWgcA%3D%3D#polycard_client=search-nordic&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;wid=MLB5335893496&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>02ajjdow657w7t641t90cu</t>
-        </is>
+          <t>BellVOLPE Slim carteira masculina e feminina couro legítimo cor marinho</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78.95</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16-04-2025</t>
+          <t>https://www.mercadolivre.com.br/bellvolpe-slim-masculina-feminina-carteira-marinho-couro/p/MLB29080832?searchVariation=MLB29080832#wid=MLB4326351500&amp;sid=search&amp;searchVariation=MLB29080832&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3m3uiohg1cfkde8upggxn</t>
-        </is>
+          <t>BellVOLPE Slim Cor Marrom Carteira Masculina Feminina Couro Legítimo</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.98999999999999</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17-06-2025</t>
+          <t>https://www.mercadolivre.com.br/bellvolpe-slim-masculina-feminina-carteira-marrom-couro/p/MLB34294212?searchVariation=MLB34294212#wid=MLB3634789227&amp;sid=search&amp;searchVariation=MLB34294212&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ir9zxyp5mvt6hxgjniwh</t>
-        </is>
+          <t>Carteira Masculina 100% Couro Bovino Modelo L S/plástico</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>42.9</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12-06-2025</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1528823636-carteira-masculina-100-couro-bovino-modelo-l-splastico-_JM?searchVariation=56285805613#searchVariation=56285805613&amp;position=51&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Carteira Comprida De Tecido Grande, Suporte De Telefone Com</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>276.64</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5380758480-carteira-comprida-de-tecido-grande-suporte-de-telefone-com-_JM?searchVariation=183558613788#searchVariation=183558613788&amp;position=52&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Young em Couro grande porta CNH RG Moeda</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>38.88</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/young-slim-carteira-preto-liso-couro/p/MLB22867718?searchVariation=MLB22867718#wid=MLB3313029361&amp;sid=search&amp;searchVariation=MLB22867718&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Trichique Carteira Anti Furto Rfid Slim</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/two-birds-carteira-anti-furto-rfid-carteira-preto-fibra-de-carbono-couro-sintetico/p/MLB25567147?searchVariation=MLB25567147#wid=MLB5216327826&amp;sid=search&amp;searchVariation=MLB25567147&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Carteira Masculina De Couro Ziper Porta Cartão Documentos</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=fHsY2wvqAXgSix%2BZQhQGltd1v5Q6TrlSrqr3SOaiCZrDwfl8rSwxZJfh3v%2BZrlflLgssp2lxwadDpSLwAhVgoUHHb28EyChVWvGCUbcQpAvQUGs2Lx9xfHeyUJ0F%2BSTzRnDTxWCHZVg5VKyEbmowyyKkKzy12pkLQIuxVDLWrVxogq%2BR7sW%2BoNmuPV68MPbphQClNsaNRWs3Lt1N6b70%2FIeW8d64VE425HKcqVyosVLq%2BBIcwDqnVPcNmhoHAYT0yI%2FT7To8Phze03jDE4Gk%2Fr3xHvMm0bZVfkMrQN%2FHpUa7%2FmyGlPj71inPgxmDx1%2FetWHzChTgdTH%2F1zTUeIyvNiwvBhxRTWfl6N10EdrMPsi96Hr7lAuDxMTk9hePo4yUntps4LChtIlcH2w20LMrrP%2F8vZeefm7bC%2B0DcS%2FD0Np5ezNbF0qvLgt7sREekOBPdVyB5n3nL8mMMfti3o%2BbBE6il%2F6On9%2Fl1YKXBz2qGtbLDASKQr3wvBAaW%2Fw%2Bni%2FXjYhDhHndeN9LVkc258aVkqHmh8irA4RfLgwchg8vX0OAOEAVLZbU0qmA7THuVqAKJYs1zc74Q3DJdiltfjZVuM%2Fo1pZVU5Io5WSJulHheUQ9zwiPCMl6R8GwE%2BMRbxpjfBsE49F9KrP3e0ld1b8hB6gSP8OR0Izjw4TD8%2F6810waKj2MA5wHqoPk1MKEYlxVU4A2mYvt%2BIW%2F0EGQVscO4SYvin%2BAVSCBdZSWSp4aAL1e9trlrbt15nUxiru0VGN8Wb9eWChAR%2BqhLtntyH1cfRE%2FCFY7Bwpa%2BJMG%2BWskttNwGyNZsJ6qReRNhJMXerj9R18wf%2FSAan3ChhjCD0H%2Bwepo5AWwJdeFm5KX9%2BwXE6YRAvTDKKiSidHfZXhdOZtlsk0LZeeHUvkH8fSyQS92pocJivi2mmELXImb1V%2FaXJAJKwm1nhX9YrxSdm6xNCKe&amp;searchVariation=173634181917#polycard_client=search-nordic&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Couro Legitimo Luxo Águia Couro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=qnZaamrFeDxOWJ%2Bo9x1VQb4ghCgFYiQuhtXtiXSgSqrzXFv6HbIFiD4uMSFSb17skH%2FAKtHCtuX45YrBKDYZabVFajw3ja3hXMHAS7shqxT41P0xjX6%2BGBwZ5lCQi1jzpvQfBJ%2FkkcHn9cboaIKQa6h9Iwj7MumhEZK2dHRg%2BaVD6yNEoYzweGN81EaWENa9kBMeCs%2F3tQqFMPTDbZVaktZogi0FuqEZ%2FtCQ5sC5B001mY4pLHIX6Aynrp91EIA4H998aLq0EAoidddIga1luBfpRllEH6VOHSuCnKhHw%2BClwR7LqyhbR6zXxi6jEt9dhL1d%2F%2FpBh2Z5nJGQCpJu6ByBGJD2DphRDMCq3RTbAAxsgrfQqXpBm19Jr3VDrhIvz6U6K2DdlPua7DY2SFQQOtLxmaEGVFgp%2BRDwmSpfq9oEJ4w5kYPcArXgF4yyYpB0SqH2bKITIHu5Ui2GnXxm2QZmxbdKZPJWYX0GD2smvHtUiiV3614XEwkYEqx2eVYLgKTtUsl0v9RAmxP1LJ5psricoc0A2TN3qfrKmCpjzEFv5ahOf%2Bbszi45FdGq4tygRfM1QdEd0Zrtj5Gc57YLoA5CUE%2BU7nhbPsKniSqu4cq0hUTQcttXI3hPbVQ2nO2vCFH9FxkTBXWzonM7EuXmRRFMDxE3Sytwi%2B6krOwE8WuoiDzlVtbit6OsYB1Ad0E28dXv7XA5xWD%2FCGq9QvmPSnTzMw6V%2B425C0c6Ldx7Thhsjp7Jz5UEtwxNb0v1W1LMZQkzfvw9%2FIBdOcsVH0Sg4Ukx16PFOiWAs0zcKZ1iyyocZaJatT4wDx%2BWyjOrG%2BHbpSyL4WxcEStjRuhrlrySPsytTw1iL04PY9%2BUZ2JYoj3Hw9Ed9ymB6OrEnmL77H2m%2BG0rcsgfHJCUJTaKqqMcz8t3zZ%2BQUJiEzK4lf%2B8nAM1vKcGRK0jycI%2B3BTTw5BawcfRO&amp;searchVariation=181967716190#polycard_client=search-nordic&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Carteira Pequena Slim Masculina Em Couro Porta Cartão, Cnh</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=JxViQ0lpHYyXHOq661hldJxMrroQTUqEqQ2oSRPp6yQowItFsXzq0T8YGR4HXnqPMpzaIzgNUr3zxhymoV%2FXt8f1fISnU8biCKYgVan6TAaW3BoLq4G8gQhF4TUPtv%2BQ9kfvyZ9A%2BIhbPS%2Bv%2Fbm523t1%2FTbFYCmwfYyDC6iXK4zCyLRwY1ORtWr1%2BdnN45ewbatpQktEgM1NcHdpP%2BGseVgHo2IVXvB9wR79TdhVv2OEhSyvWdp9upqupEpPPIe9qhx7RL4V4ZI2bFZf6k14QR1KsdVOjCVb65221g%2B7OVEouOB%2BQRrwfALpv%2BcsNnWUHX31F3aWXSBemBcQpNiDRiAYnJFt%2FJqxYEEyXB%2BIfhPPDRElDANv2jodrBh8eWScikJ6NwIpKItR6AjzRZuBeKv8lPi4DjojN%2FYdsa4PZZky1EUYRgzx4P%2FP7FSwnJO849Ed6d3actl50V46VEyI4zOGFUVNleiO9Hc5wnB%2Fns00F%2BEbpNIJqP2MlXgbwDD3LryoPUU4mXH%2FkDkaAjNcQ6HvOQiVrdY5Jm5svjIQ3%2F6mtKvaKioFrzdaKW6TPS2FgvcaR%2BcmmdyHP32RQH6jtEj%2F05isxo1ZokQuIE2aClKn5vZVz6o9yfXhzqoybZIugTHRkiwXrXoPFT5LIK%2BHVXI%2Blij%2B8J2hnk25d9uyUfSTiWG7IgNDodVoEB7K5%2FVoLGGncyv6ec0HaG1dYSuegr6%2B%2FTzP9DB%2FdZNjjHsvMb8dDIo04a952LRUrOUqi1wQhZ%2FcVhuSrAvCHCBsy%2BOWK7acd5tDIrjTKld7wF%2Fx0Wdz9nQS1FzsfEMuVbg%2FFcaBxE5s4W3g2ZsuOOFDVN3vg2wOoCBBZRJyE%2Fe%2BT0wmiX%2FOahDYvnheE%2BUKYzGwlpD4jLrzF4jcYSrTUZApbt5cH1Vtn32uQYaClpy1nn%2B%2FzSKbxRTclwfgplmPz425je0%3D&amp;searchVariation=178118331503#polycard_client=search-nordic&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Porta Cartões Duo Slim Couro Legítimo Cor Preto</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/bellvolpe-duo-masculina-feminina-carteira-preto-couro/p/MLB28891413?searchVariation=MLB28891413#wid=MLB3542343867&amp;sid=search&amp;searchVariation=MLB28891413&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Meb Importações carteira anti furto RFID cor preto</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/meb-importacoes-carteira-anti-furto-rfid-carteira-preto-listras-couro-sintetico/p/MLB24564159?searchVariation=MLB24564159#wid=MLB3939146985&amp;sid=search&amp;searchVariation=MLB24564159&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Carteira Pequena Slim Fecho Imã Minimalista Cinta Elastica C Cor Tuatara Desenho do tecido Lisa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>101.27</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/atni-carteira-tuatara-lisa-couro-ecologico/p/MLB39025410?searchVariation=MLB39025410#wid=MLB3821615185&amp;sid=search&amp;searchVariation=MLB39025410&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Carteiras: Organize Seus Essenciais Com Sofisticação.</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-5387492608-carteiras-organize-seus-essenciais-com-sofisticaco-_JM?searchVariation=183607542854#searchVariation=183607542854&amp;position=53&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Carteira William Polo Couro Genuíno Cor Preto Desenho Do Tecido Liso</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/william-polo-polo181342-carteira-preto-liso-couro/p/MLB39410120?searchVariation=MLB39410120#wid=MLB5058801552&amp;sid=search&amp;searchVariation=MLB39410120&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Vertical Premium Com Zíper Gr</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4044063897-carteira-masculina-vertical-premium-com-ziper-gr-_JM?searchVariation=187692406171#searchVariation=187692406171&amp;position=54&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Couro Legítimo Premium Extra Macio Ref957 Cor Preto</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>76.98999999999999</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-masculina-couro-legitimo-premium-extra-macio-ref957-cor-preto/p/MLB45206931?searchVariation=MLB45206931#polycard_client=search-nordic&amp;searchVariation=MLB45206931&amp;wid=MLB3943718189&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Águia Couro Carteira Masculina Com Zíper Carteira Cor Preto Couro Legitimo</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/aguia-couro-carteira-masculina-com-ziper-carteira-cor-preto-couro-legitimo/p/MLB37556507?searchVariation=MLB37556507#polycard_client=search-nordic&amp;searchVariation=MLB37556507&amp;wid=MLB3730687693&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Carteira Antifurto Com Sistema Rfid Slim Efeito Fibra De Carbono Tomóvi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-antifurto-com-sistema-rfid-slim-efeito-fibra-de-carbono-tomovi/p/MLB44865008?searchVariation=MLB44865008#polycard_client=search-nordic&amp;searchVariation=MLB44865008&amp;wid=MLB5226945208&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Carteira Mini Couro Legítimo Porta Cartão Cnh Masculina 154 Preto Couro</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/mart-154-carteira-preto-liso-couro/p/MLB24038695?searchVariation=MLB24038695#wid=MLB3752789878&amp;sid=search&amp;searchVariation=MLB24038695&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Couro Legítimo Completa Com Fecho Botão Cor Preto</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-masculina-couro-legitimo-completa-com-fecho-boto-cor-preto/p/MLB26760467?searchVariation=MLB26760467#polycard_client=search-nordic&amp;searchVariation=MLB26760467&amp;wid=MLB3989035814&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Porta Cartões Duo Slim Couro Legítimo Cor Havana</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/bellvolpe-duo-masculina-feminina-carteira-havana-couro/p/MLB28887013?searchVariation=MLB28887013#wid=MLB3542279343&amp;sid=search&amp;searchVariation=MLB28887013&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Carteira Em Couro: Elegância E Durabilidade Que Impressionam</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4062128211-carteira-em-couro-elegncia-e-durabilidade-que-impressionam-_JM?searchVariation=183608588474#searchVariation=183608588474&amp;position=55&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Carteira masculina Roder porta cartão documento carro couro slim monolo cor preto</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-masculina-roder-porta-carto-documento-carro-couro-slim-monolo-cor-preto/p/MLB23496432?searchVariation=MLB23496432#polycard_client=search-nordic&amp;searchVariation=MLB23496432&amp;wid=MLB4324747850&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Carteira Masculina William Polo.couro Genuíno.pronta Cor Preto Frisado Desenho Do Tecido Frisado</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/william-polo-slim-carteira-preto-frisado-frisado-couro/p/MLB24078406?searchVariation=MLB24078406#wid=MLB4935564392&amp;sid=search&amp;searchVariation=MLB24078406&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Carteira Futuro Rfid Slim Porta Cartões De Couro Antifurto. Cor Cx Prata Chaveiro Desenho Do Tecido Lisa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/meb-importacoes-carteira-anti-furto-rfid-carteira-cx-prata-chaveiro-lisa-couro-sintetico/p/MLB38293864?searchVariation=MLB38293864#wid=MLB4909687936&amp;sid=search&amp;searchVariation=MLB38293864&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Carteira Couro Legítimo Masculina Fechamento Zíper Grande Porta Documentos Moedas Cartão Cédulas Lisa Preto</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-couro-legitimo-masculina-fechamento-ziper-grande-porta-documentos-moedas-carto-cedulas-lisa-preto/p/MLB46474323?searchVariation=MLB46474323#polycard_client=search-nordic&amp;searchVariation=MLB46474323&amp;wid=MLB3987620869&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Carteira Couro Legítimo Masculina Premium Extra Macia Ref957 Cor Preto</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-couro-legitimo-masculina-premium-extra-macia-ref957-cor-preto/p/MLB22900136?searchVariation=MLB22900136#polycard_client=search-nordic&amp;searchVariation=MLB22900136&amp;wid=MLB3572282901&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Carteira Masculino Couro Legítimo Tripari Acessórios Lançamento Ref 973</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-masculino-couro-legitimo-tripari-acessorios-lancamento-ref-973/p/MLB34657578?searchVariation=MLB34657578#polycard_client=search-nordic&amp;searchVariation=MLB34657578&amp;backend_model=search-backend&amp;wid=MLB5335893496&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Carteira de couro Águia Couro Legítimo masculina com porta documentos cor preto</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-de-couro-aguia-couro-legitimo-masculina-com-porta-documentos-cor-preto/p/MLB25812149?searchVariation=MLB25812149#polycard_client=search-nordic&amp;searchVariation=MLB25812149&amp;wid=MLB3508304301&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Carteira Willian Polo 100% Slim Modelo Cor Preto Desenho Do Tecido 3d</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/william-polo-polo191466-carteira-preto-3d-couro/p/MLB39476870?searchVariation=MLB39476870#wid=MLB3826905363&amp;sid=search&amp;searchVariation=MLB39476870&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Carteira William Polo Couro Genuíno - Preto Desenho Do Tecido Liso 3d</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>172.9</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/william-polo-horizontal-carteira-preto-liso-3d-couro/p/MLB36936125?searchVariation=MLB36936125#wid=MLB4697144682&amp;sid=search&amp;searchVariation=MLB36936125&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Grande Ziper Porta Moeda Cartão Documento Cor Preto Desenho Do Tecido Liso</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>72.53</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/monolo-carteira-preto-liso-couro/p/MLB40585763?searchVariation=MLB40585763#wid=MLB3863748063&amp;sid=search&amp;searchVariation=MLB40585763&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Slim Porta Cartões Couro</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/brasile-vertical-slim-couro-carteira-preto-couro/p/MLB33072578?searchVariation=MLB33072578#wid=MLB3681005287&amp;sid=search&amp;searchVariation=MLB33072578&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Couro Legítimo Completa Com Fecho Botão Cor Preto</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-masculina-couro-legitimo-completa-com-fecho-boto-cor-preto/p/MLB36588167?searchVariation=MLB36588167#polycard_client=search-nordic&amp;searchVariation=MLB36588167&amp;backend_model=search-backend&amp;wid=MLB3748193877&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Capa Protetora 3 Unid Para Rg Identidade Documento</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1171919777-capa-protetora-3-unid-para-rg-identidade-documento-_JM?searchVariation=176648082752#searchVariation=176648082752&amp;position=56&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Carteira Fasolo H007-143 preto de couro capretto - 7.7cm x 10cm x 1cm</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fasolo-h007-143-preto-couro-capretto/p/MLB9768798?searchVariation=MLB9768798#wid=MLB3957725104&amp;sid=search&amp;searchVariation=MLB9768798&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Porta Cartões Duo Slim Couro Legítimo Cor Café</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/bellvolpe-duo-masculina-feminina-carteira-cafe-couro/p/MLB28932701?searchVariation=MLB28932701#wid=MLB3542395723&amp;sid=search&amp;searchVariation=MLB28932701&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Carteira De Couro Jeep Wallet</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>106.18</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063804733-carteira-masculina-carteira-de-couro-jeep-wallet-_JM?searchVariation=187964316543#searchVariation=187964316543&amp;position=57&amp;search_layout=grid&amp;type=item&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Carteira Manbang Horizontal Em Couro Legitimo - Antifurto Cor Marrom-escuro Desenho Do Tecido Liso</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/manbang-mbq2841cf-carteira-marrom-escuro-liso-couro-original/p/MLB40395093?searchVariation=MLB40395093#wid=MLB3847438735&amp;sid=search&amp;searchVariation=MLB40395093&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Porta Cartões Duo Slim Couro Legítimo Cor Marinho</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/bellvolpe-duo-masculina-feminina-carteira-marinho-couro/p/MLB29087071?searchVariation=MLB29087071#wid=MLB3547911777&amp;sid=search&amp;searchVariation=MLB29087071&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Carteira masculina couro sintet minimalista pop up exclusive cor Ravenna desenho do tecido lisa ATNI</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>101.27</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/atni-carteira-ravenna-lisa-couro-ecologico/p/MLB39315579?searchVariation=MLB39315579#wid=MLB3821601567&amp;sid=search&amp;searchVariation=MLB39315579&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Águia Couro Completa Couro Legítimo 705 Cor Preto Desenho Do Tecido Liso</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/carteira-masculina-aguia-couro-completa-couro-legitimo-705-cor-preto-desenho-do-tecido-liso/p/MLB47743459?searchVariation=MLB47743459#polycard_client=search-nordic&amp;searchVariation=MLB47743459&amp;wid=MLB4043094261&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Couro Sintet Minimalista Pop Up Exclusive Cor Boss Desenho do tecido Lisa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>101.27</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/atni-carteira-boss-lisa-couro-ecologico/p/MLB39312373?searchVariation=MLB39312373#wid=MLB3821505949&amp;sid=search&amp;searchVariation=MLB39312373&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Carteira Mitty M0 preto de couro - 8cm x 10.5cm x 2cm</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/mitty-m0-carteira-preto-couro/p/MLB15098512?searchVariation=MLB15098512#wid=MLB3383039504&amp;sid=search&amp;searchVariation=MLB15098512&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Carteira Masculina Horizontal Slim Cor Preto</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/bellvolpe-horizontal-slim-carteira-preto-couro/p/MLB9756584?searchVariation=MLB9756584#wid=MLB4706314484&amp;sid=search&amp;searchVariation=MLB9756584&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=b903f10e-b290-4e34-9753-7a3d5267ea98&amp;picker_url=true</t>
         </is>
       </c>
     </row>
